--- a/scripts/confidence intervals.xlsx
+++ b/scripts/confidence intervals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ez_projects\PanoramicDataWin8-study\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Variance</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Lower</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -356,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +371,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -388,7 +391,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -397,7 +403,7 @@
         <v>6.333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>(A1-I3)*(A1-I3)</f>
         <v>11.111111111111109</v>
@@ -436,8 +442,25 @@
         <f>I3+(1.96 * I5)</f>
         <v>11.689072933674883</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0.52</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <f>SQRT((N4*(1-N4))/O4)</f>
+        <v>0.15798734126505198</v>
+      </c>
+      <c r="Q4">
+        <f>P4*R4</f>
+        <v>1579.8734126505199</v>
+      </c>
+      <c r="R4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>2</v>
       </c>
@@ -452,8 +475,63 @@
         <f>I3-(1.96 * I5)</f>
         <v>0.97759373299178343</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0.52</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P12" si="0">SQRT((N5*(1-N5))/O5)</f>
+        <v>0.11171392035015153</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q12" si="1">P5*R5</f>
+        <v>1117.1392035015153</v>
+      </c>
+      <c r="R5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0.52</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>9.121403400793103E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>912.14034007931025</v>
+      </c>
+      <c r="R6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0.52</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>7.8993670632525992E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>789.93670632525993</v>
+      </c>
+      <c r="R7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H8">
         <f>_xlfn.VAR.P(A1:F1)</f>
         <v>6.2222222222222223</v>
@@ -462,23 +540,116 @@
         <f>_xlfn.VAR.S(A1:F1)</f>
         <v>7.4666666666666686</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0.52</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7.0654086930622778E-2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>706.54086930622782</v>
+      </c>
+      <c r="R8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H9">
         <f>SQRT(H8)</f>
         <v>2.4944382578492941</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0.52</v>
+      </c>
+      <c r="O9">
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>6.4498061986388397E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>644.98061986388393</v>
+      </c>
+      <c r="R9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H10">
         <f>AVERAGE(A1:F1)</f>
         <v>6.333333333333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0.52</v>
+      </c>
+      <c r="O10">
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>5.9713602183374313E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>597.13602183374314</v>
+      </c>
+      <c r="R10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H11">
         <f>_xlfn.CONFIDENCE.NORM(0.95,I5,6)</f>
         <v>6.9952339330447574E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.52</v>
+      </c>
+      <c r="O11">
+        <v>80</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>5.5856960175075764E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>558.56960175075767</v>
+      </c>
+      <c r="R11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0.52</v>
+      </c>
+      <c r="O12">
+        <v>90</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>5.2662447088350661E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>526.62447088350666</v>
+      </c>
+      <c r="R12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f>I5 / SQRT(12)</f>
+        <v>0.78881063774661542</v>
       </c>
     </row>
   </sheetData>
